--- a/Sheets/PS3.xlsx
+++ b/Sheets/PS3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AA5CE9-19BB-40BF-A42C-703532F597A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBF8AF5-DC6D-41B2-A040-E3BA962072B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{33F5E81B-99C2-46F0-8EDC-9DE72315AF78}"/>
   </bookViews>
@@ -39,27 +39,9 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Name of the Faculty</t>
-  </si>
-  <si>
-    <t>Nature (IN/N/R)</t>
-  </si>
-  <si>
-    <t>Type of Programme (Sem, Conf, WS, Webinar,  etc.)</t>
-  </si>
-  <si>
-    <t>Name of the Programme</t>
-  </si>
-  <si>
-    <t>Name and Place of the Institution</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Duration in Days</t>
-  </si>
-  <si>
     <t>2023-24</t>
   </si>
   <si>
@@ -226,6 +208,24 @@
   </si>
   <si>
     <t>2023-23</t>
+  </si>
+  <si>
+    <t>Name_of_the_Faculty</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Type_of_Programme</t>
+  </si>
+  <si>
+    <t>Name_of_the_Programme</t>
+  </si>
+  <si>
+    <t>Name_and_Place_of_the_Institution</t>
+  </si>
+  <si>
+    <t>Duration_in_Days</t>
   </si>
 </sst>
 </file>
@@ -235,7 +235,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy/yy"/>
     <numFmt numFmtId="165" formatCode="[$-14009]d\.m\.yy;@"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-yy"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-yy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -317,10 +317,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,8 +638,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H1212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,48 +659,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H2" s="5">
         <v>5</v>
@@ -708,25 +708,25 @@
     </row>
     <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
@@ -734,25 +734,25 @@
     </row>
     <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H4" s="5">
         <v>2</v>
@@ -760,25 +760,25 @@
     </row>
     <row r="5" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H5" s="5">
         <v>3</v>
@@ -786,25 +786,25 @@
     </row>
     <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -812,25 +812,25 @@
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
@@ -838,25 +838,25 @@
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H8" s="5">
         <v>10</v>
@@ -864,25 +864,25 @@
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H9" s="5">
         <v>2</v>
@@ -890,25 +890,25 @@
     </row>
     <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
@@ -916,25 +916,25 @@
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H11" s="5">
         <v>7</v>
@@ -942,25 +942,25 @@
     </row>
     <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H12" s="5">
         <v>3</v>
